--- a/Maya Project Sheet.xlsx
+++ b/Maya Project Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwmbs\Documents\GitHub\UVUdgm1660-Clark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7109814D-F003-4BA3-8C24-B47B0DF3827D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DEB61-8CFC-4A95-879A-1F635BD5072C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="19416" windowHeight="10536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Production Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="TotalAnimTime">'Rigging and Animation'!$H$5</definedName>
-    <definedName name="TotalModelTime">Models!$H$54</definedName>
+    <definedName name="TotalModelTime">Models!$H$68</definedName>
     <definedName name="TotalScriptTime">Scripts!$G$16</definedName>
     <definedName name="TotalSFXTime">SFX!$G$18</definedName>
     <definedName name="TotalUITime">UI!$G$13</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="154">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -407,13 +407,124 @@
     <t>small</t>
   </si>
   <si>
-    <t>5 minutes</t>
-  </si>
-  <si>
-    <t>10 minutes</t>
-  </si>
-  <si>
-    <t>15 minutes</t>
+    <t>hand stem</t>
+  </si>
+  <si>
+    <t>hour hand</t>
+  </si>
+  <si>
+    <t>minute hand</t>
+  </si>
+  <si>
+    <t>second hand</t>
+  </si>
+  <si>
+    <t>upper bracket holes</t>
+  </si>
+  <si>
+    <t>bottom bracket holes</t>
+  </si>
+  <si>
+    <t>10 sided bottom peice</t>
+  </si>
+  <si>
+    <t>lower strap bar</t>
+  </si>
+  <si>
+    <t>lower strap wrap</t>
+  </si>
+  <si>
+    <t>lower band holes 1 to 6</t>
+  </si>
+  <si>
+    <t>lower band strap and point</t>
+  </si>
+  <si>
+    <t>upper band strap</t>
+  </si>
+  <si>
+    <t>buckle parts</t>
+  </si>
+  <si>
+    <t>buckle bar</t>
+  </si>
+  <si>
+    <t>buckle latch parts</t>
+  </si>
+  <si>
+    <t>buckle wraps</t>
+  </si>
+  <si>
+    <t>upper band bar</t>
+  </si>
+  <si>
+    <t>upper band wrap</t>
+  </si>
+  <si>
+    <t>body frame</t>
+  </si>
+  <si>
+    <t>watch bracket BR</t>
+  </si>
+  <si>
+    <t>watch bracket BL</t>
+  </si>
+  <si>
+    <t>watch bracket TR</t>
+  </si>
+  <si>
+    <t>watch bracket TL</t>
+  </si>
+  <si>
+    <t>10 sided bottom piece</t>
+  </si>
+  <si>
+    <t>bracket hole BR</t>
+  </si>
+  <si>
+    <t>bracket hole BL</t>
+  </si>
+  <si>
+    <t>lower band bar</t>
+  </si>
+  <si>
+    <t>lower band wrap</t>
+  </si>
+  <si>
+    <t>band holes</t>
+  </si>
+  <si>
+    <t>upper buckle part</t>
+  </si>
+  <si>
+    <t>buckle latch wrap</t>
+  </si>
+  <si>
+    <t>buckle latch</t>
+  </si>
+  <si>
+    <t>right buckle wrap</t>
+  </si>
+  <si>
+    <t>left buckle wrap</t>
+  </si>
+  <si>
+    <t>right buckle part</t>
+  </si>
+  <si>
+    <t>left buckle part</t>
+  </si>
+  <si>
+    <t>upper bar wrap</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Note: all times are measured in minutes</t>
   </si>
 </sst>
 </file>
@@ -863,7 +974,7 @@
       </c>
       <c r="B4" s="13">
         <f>TotalModelTime</f>
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2">
@@ -917,7 +1028,7 @@
       </c>
       <c r="B10" s="23">
         <f>SUM(B4:B9)</f>
-        <v>101.6</v>
+        <v>852.6</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.6">
@@ -978,10 +1089,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1051,10 +1162,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
@@ -1068,7 +1179,7 @@
       </c>
       <c r="H3" s="11">
         <f>SUM(C3:G3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.2">
@@ -1076,10 +1187,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
@@ -1093,7 +1204,7 @@
       </c>
       <c r="H4" s="11">
         <f>SUM(C4:G4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2">
@@ -1101,10 +1212,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -1118,7 +1229,7 @@
       </c>
       <c r="H5" s="11">
         <f>SUM(C5:G5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.2">
@@ -1126,10 +1237,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
@@ -1143,7 +1254,7 @@
       </c>
       <c r="H6" s="11">
         <f>SUM(C6:G6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.2">
@@ -1153,8 +1264,8 @@
       <c r="B7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>114</v>
+      <c r="C7" s="7">
+        <v>5</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1171,10 +1282,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1187,14 +1298,16 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="G9" s="13" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="16">
         <f>SUM(H3:H6)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.2">
@@ -1207,18 +1320,18 @@
         <v>105</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="11">
-        <f t="shared" ref="H11:H25" si="0">SUM(C11:G11)</f>
-        <v>0</v>
+        <f t="shared" ref="H11:H34" si="0">SUM(C11:G11)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.2">
@@ -1226,10 +1339,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1237,7 +1350,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.2">
@@ -1245,10 +1358,10 @@
         <v>109</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1256,7 +1369,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.2">
@@ -1264,10 +1377,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="C14" s="7">
+        <v>15</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1275,7 +1388,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.2">
@@ -1283,10 +1396,10 @@
         <v>111</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1294,7 +1407,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.2">
@@ -1302,10 +1415,10 @@
         <v>112</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1313,527 +1426,1021 @@
       <c r="G16" s="7"/>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.2">
-      <c r="A17" s="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
+      <c r="A17" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.2">
-      <c r="A18" s="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.2">
+      <c r="A18" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.2">
-      <c r="A19" s="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.2">
+      <c r="A19" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.2">
-      <c r="A20" s="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.2">
+      <c r="A20" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.2">
-      <c r="A21" s="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.2">
+      <c r="A21" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.2">
-      <c r="A22" s="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.2">
+      <c r="A22" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C22" s="7">
+        <v>15</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.2">
-      <c r="A23" s="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.2">
+      <c r="A23" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.2">
-      <c r="A24" s="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.2">
+      <c r="A24" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.2">
-      <c r="A25" s="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.2">
+      <c r="A25" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="G26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="16">
-        <f>SUM(H11:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="13.2">
-      <c r="A27" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.2">
+      <c r="A26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="7">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.2">
+      <c r="A27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="11">
-        <f t="shared" ref="H28:H52" si="1">SUM(C28:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.2">
       <c r="A29" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13.2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="13.2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="13.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="13.2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.2">
       <c r="A33" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.2">
+      <c r="A34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="7">
+        <v>15</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="16">
+        <f>SUM(H11:H34)</f>
+        <v>270</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.2">
+      <c r="A36" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.2">
+      <c r="A37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7">
+        <v>20</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+        <f t="shared" ref="H37:H66" si="1">SUM(C37:G37)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13.2">
+      <c r="A38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="7">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.2">
+      <c r="A39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.2">
+      <c r="A40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.2">
+      <c r="A41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="7">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.2">
+      <c r="A42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="7">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13.2">
+      <c r="A43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="7">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.2">
+      <c r="A44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="7">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.2">
+      <c r="A45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="7">
+        <v>8</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.2">
+      <c r="A46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.2">
+      <c r="A47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="13.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.2">
+      <c r="A48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.2">
+      <c r="A49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="13.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.2">
+      <c r="A50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="7">
+        <v>10</v>
+      </c>
+      <c r="D50" s="7">
+        <v>15</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.2">
+      <c r="A51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="7">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7">
+        <v>10</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.2">
+      <c r="A52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="7">
+        <v>5</v>
+      </c>
+      <c r="D52" s="7">
+        <v>9</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="17.25" customHeight="1">
-      <c r="G53" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.2">
+      <c r="A53" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.2">
+      <c r="A54" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="7">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.2">
+      <c r="A55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="7">
+        <v>20</v>
+      </c>
+      <c r="D55" s="7">
+        <v>17</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.2">
+      <c r="A56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="7">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.2">
+      <c r="A57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7">
+        <v>7</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.2">
+      <c r="A58" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="7">
+        <v>10</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13.2">
+      <c r="A59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="7">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13.2">
+      <c r="A60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="7">
+        <v>9</v>
+      </c>
+      <c r="D60" s="7">
+        <v>9</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.2">
+      <c r="A61" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="7">
+        <v>9</v>
+      </c>
+      <c r="D61" s="7">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.2">
+      <c r="A62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="7">
+        <v>5</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.2">
+      <c r="A63" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="7">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7">
+        <v>6</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13.2">
+      <c r="A64" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="7">
+        <v>15</v>
+      </c>
+      <c r="D64" s="7">
+        <v>7</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.2">
+      <c r="A65" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13.2">
+      <c r="A66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="16">
-        <f>SUM(H28:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.2">
-      <c r="G54" s="18" t="s">
+      <c r="H67" s="16">
+        <f>SUM(H37:H66)</f>
+        <v>456</v>
+      </c>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.2">
+      <c r="G68" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="20">
-        <f>SUM(H9, H26, H53)</f>
-        <v>0</v>
+      <c r="H68" s="20">
+        <f>SUM(H9, H35, H67)</f>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
